--- a/medicine/Enfance/Jude_Watson/Jude_Watson.xlsx
+++ b/medicine/Enfance/Jude_Watson/Jude_Watson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judy Blundell, plus connue sous son pseudonyme Jude Watson, née à New York, est une romancière américaine de science-fiction. Elle est entre autres célèbre pour ses livres jeunesses se déroulant dans l'univers Star Wars.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle obtient le National Book Award 2008 avec le roman Ce que j'ai vu et pourquoi j'ai menti (What I Saw and How I Lied) publié sous son patronyme.
 </t>
@@ -544,9 +558,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série Les Apprentis Jedi
- La Menace surgie du passé, Pocket Jeunesse, 2002 ((en) The Dark Rival, 1999)
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Les Apprentis Jedi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Menace surgie du passé, Pocket Jeunesse, 2002 ((en) The Dark Rival, 1999)
 Les Voleurs de mémoire, Pocket Jeunesse, 2002 ((en) The Hidden Past, 1999)
 La Marque royale, Pocket Jeunesse, 2002 ((en) The Mark of the Crown, 1999)
 Jedi contre Jedi, Pocket Jeunesse, 2002 ((en) The Defenders of the Dead, 1999)
@@ -564,9 +586,47 @@
 Désir de vengeance, Pocket Jeunesse, 2004 ((en) The Call to Vengeance, 2001)
 L'Unique Témoin, Pocket Jeunesse, 2004 ((en) The Only Witness, 2002)
 Les Erreurs du passé, Pocket Jeunesse, 2004 ((en) The Threat Within, 2002)
-Édition spéciale II : Les Disciples noirs, Pocket Jeunesse, 2005 ((en) Special Edition II: The Followers, 2002)
-Série Jedi Quest
-(en) Path to Truth, 2001
+Édition spéciale II : Les Disciples noirs, Pocket Jeunesse, 2005 ((en) Special Edition II: The Followers, 2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jedi Quest</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Path to Truth, 2001
 (en) The Way of the Apprentice, 2002
 (en) The Trail of the Jedi, 2002
 (en) The Dangerous Games, 2002
@@ -576,9 +636,47 @@
 (en) The Moment of Truth, 2003
 (en) The Changing of the Guard, 2004
 (en) The False Peace, 2004
-(en) The Final Showdown, 2004
-Série The Last of the Jedi
-(en) The Desperate Mission, 2005
+(en) The Final Showdown, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série The Last of the Jedi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Desperate Mission, 2005
 (en) Dark Warning, 2005
 (en) Underworld, 2005
 (en) Death on Naboo, 2006
@@ -587,37 +685,400 @@
 (en) Secret Weapon, 2007
 (en) Against the Empire, 2007
 (en) Master of Deception, 2008
-(en) Reckoning, 2008
-Série Star Wars Journals
-(en) Star Wars Journal: Captive to Evil by Princess Leia Organa, 1998
+(en) Reckoning, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Star Wars Journals</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Star Wars Journal: Captive to Evil by Princess Leia Organa, 1998
 Star Wars, épisode I : Journal : Amidala, Pocket Jeunesse, 1999 ((en) Star Wars Episode I Journal: Queen Amidala, 1999)
-(en) Star Wars Episode I Journal: Darth Maul, 2000
-Romans indépendants
-(en) Legacy of the Jedi, 2003
-(en) Secrets of the Jedi, 2005
-Univers Les 39 Clés
-Série Les 39 Clés
- Expédition en Egypte, Bayard Jeunesse, 2011 ((en) Beyond the Grave, 2009)
- Destination Krakatoa, Bayard Jeunesse, 2011 ((en) In Too Deep, 2009)
-Série Cahill contre Vesper
- La Menace Vesper, Bayard Jeunesse, 2014 ((en) Vespers Rising, 2011)Coécrit avec Peter Lerangis, Gordon Korman et Rick Riordan.
- Piégés en Allemagne, Bayard Jeunesse, 2014 ((en) A King's Ransom, 2011)
-Série Cahill contre Pierce
- La Menace Pierce, Bayard Jeunesse, 2016 ((en) Nowhere to Run, 2013)
-Série Cahill contre Cahill
- Mission Titanic, Bayard Jeunesse, 2018 ((en) Mission Titanic, 2015)
-Série Brides of Wildcat County
-(en) Impetuous: Mattie's Story, 1996
+(en) Star Wars Episode I Journal: Darth Maul, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Legacy of the Jedi, 2003
+(en) Secrets of the Jedi, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Expédition en Egypte, Bayard Jeunesse, 2011 ((en) Beyond the Grave, 2009)
+ Destination Krakatoa, Bayard Jeunesse, 2011 ((en) In Too Deep, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Vesper</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Menace Vesper, Bayard Jeunesse, 2014 ((en) Vespers Rising, 2011)Coécrit avec Peter Lerangis, Gordon Korman et Rick Riordan.
+ Piégés en Allemagne, Bayard Jeunesse, 2014 ((en) A King's Ransom, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Pierce</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Menace Pierce, Bayard Jeunesse, 2016 ((en) Nowhere to Run, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Cahill</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mission Titanic, Bayard Jeunesse, 2018 ((en) Mission Titanic, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Brides of Wildcat County</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Impetuous: Mattie's Story, 1996
 (en) Scandalous: Eden's Story, 1995
-(en) Audacious: Ivy's Story, 1995
-Série Premonitions
-(en) Premonitions, 2005
-(en) Disappearance, 2005
-Série Horizon
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Scott Westerfeld (tome 1), Jennifer A. Nielsen (en) (tome 2) et Matthew Tobin Anderson (en) (tome 4) et Aditi Khorana (en) (tome 5).
- Out of Time, Albin Michel Jeunesse, 2018 ((en) A Warp in Time, 2018)
-Romans indépendants
-Ce que j'ai vu et pourquoi j'ai menti, Gallimard Jeunesse, 2011 ((en) What I Saw and How I Lied, 2008)Écrit sous le vrai nom de l'auteur, Judy Blundell - National Book Award 2008</t>
+(en) Audacious: Ivy's Story, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Premonitions</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Premonitions, 2005
+(en) Disappearance, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Série Horizon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Scott Westerfeld (tome 1), Jennifer A. Nielsen (en) (tome 2) et Matthew Tobin Anderson (en) (tome 4) et Aditi Khorana (en) (tome 5).
+ Out of Time, Albin Michel Jeunesse, 2018 ((en) A Warp in Time, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jude_Watson</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jude_Watson</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ce que j'ai vu et pourquoi j'ai menti, Gallimard Jeunesse, 2011 ((en) What I Saw and How I Lied, 2008)Écrit sous le vrai nom de l'auteur, Judy Blundell - National Book Award 2008</t>
         </is>
       </c>
     </row>
